--- a/chp1.xlsx
+++ b/chp1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\VESP\AIML\Project's\ESY-SEM-REPLICA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7022E476-05CD-4FF6-8B9F-2EA55DB70CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0A56FC-7BB7-467C-9E4E-D34F6AB52ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="426">
   <si>
     <t>Question</t>
   </si>
@@ -637,9 +637,6 @@
     <t>Earth day is on</t>
   </si>
   <si>
-    <t xml:space="preserve"> Apri1 22</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ecomark of our country is </t>
   </si>
   <si>
@@ -1247,6 +1244,60 @@
   </si>
   <si>
     <t>Mr.M.C. Mehta</t>
+  </si>
+  <si>
+    <t>5th June</t>
+  </si>
+  <si>
+    <t>11th June</t>
+  </si>
+  <si>
+    <t>5th July</t>
+  </si>
+  <si>
+    <t>22nd Mar</t>
+  </si>
+  <si>
+    <t>24th Mar</t>
+  </si>
+  <si>
+    <t>23rd Mar</t>
+  </si>
+  <si>
+    <t>22nd Feb</t>
+  </si>
+  <si>
+    <t>22nd Jan</t>
+  </si>
+  <si>
+    <t>21st Mar</t>
+  </si>
+  <si>
+    <t>13rd Mar</t>
+  </si>
+  <si>
+    <t>12nd Mar</t>
+  </si>
+  <si>
+    <t>11st Mar</t>
+  </si>
+  <si>
+    <t>1st Aug</t>
+  </si>
+  <si>
+    <t>6th Aug</t>
+  </si>
+  <si>
+    <t>9th Aug</t>
+  </si>
+  <si>
+    <t>11th Aug</t>
+  </si>
+  <si>
+    <t>11st Aug</t>
+  </si>
+  <si>
+    <t>22nd April</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1349,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1315,6 +1366,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1345,7 +1408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1380,10 +1443,28 @@
     <xf numFmtId="166" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1607,14 +1688,15 @@
   </sheetPr>
   <dimension ref="A1:W999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="6" width="18.88671875" customWidth="1"/>
+    <col min="2" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
     <col min="7" max="7" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3252,17 +3334,17 @@
       <c r="A45" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B45" s="9">
-        <v>45082</v>
-      </c>
-      <c r="C45" s="10">
-        <v>45088</v>
-      </c>
-      <c r="D45" s="10">
-        <v>45112</v>
-      </c>
-      <c r="E45" s="10">
-        <v>45118</v>
+      <c r="B45" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>409</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
@@ -3289,17 +3371,17 @@
       <c r="A46" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B46" s="10">
-        <v>45038</v>
-      </c>
-      <c r="C46" s="11">
-        <v>45008</v>
-      </c>
-      <c r="D46" s="11">
-        <v>45009</v>
-      </c>
-      <c r="E46" s="9">
-        <v>45007</v>
+      <c r="B46" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>411</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
@@ -3326,17 +3408,17 @@
       <c r="A47" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B47" s="10">
-        <v>44948</v>
-      </c>
-      <c r="C47" s="10">
-        <v>44979</v>
-      </c>
-      <c r="D47" s="12">
-        <v>45007</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>205</v>
+      <c r="B47" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>425</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
@@ -3361,19 +3443,19 @@
     </row>
     <row r="48" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="D48" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="E48" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
@@ -3398,7 +3480,7 @@
     </row>
     <row r="49" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B49" s="4">
         <v>12000</v>
@@ -3435,19 +3517,19 @@
     </row>
     <row r="50" spans="1:23" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="D50" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="E50" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>216</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
@@ -3472,7 +3554,7 @@
     </row>
     <row r="51" spans="1:23" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B51" s="4">
         <v>1892</v>
@@ -3509,7 +3591,7 @@
     </row>
     <row r="52" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B52" s="4">
         <v>2001</v>
@@ -3546,19 +3628,19 @@
     </row>
     <row r="53" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="C53" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="D53" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
@@ -3583,19 +3665,19 @@
     </row>
     <row r="54" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="D54" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="E54" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>228</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4" t="s">
@@ -3620,19 +3702,19 @@
     </row>
     <row r="55" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="C55" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="D55" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="s">
@@ -3657,19 +3739,19 @@
     </row>
     <row r="56" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4" t="s">
@@ -3694,19 +3776,19 @@
     </row>
     <row r="57" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B57" s="10">
-        <v>44996</v>
-      </c>
-      <c r="C57" s="10">
-        <v>44997</v>
-      </c>
-      <c r="D57" s="10">
-        <v>44998</v>
-      </c>
-      <c r="E57" s="9">
-        <v>45006</v>
+        <v>238</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>416</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
@@ -3731,19 +3813,19 @@
     </row>
     <row r="58" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="C58" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4" t="s">
@@ -3768,19 +3850,19 @@
     </row>
     <row r="59" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="D59" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
@@ -3805,19 +3887,19 @@
     </row>
     <row r="60" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C60" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="D60" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="E60" s="10" t="s">
         <v>253</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4" t="s">
@@ -3842,19 +3924,19 @@
     </row>
     <row r="61" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="C61" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="D61" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="E61" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>259</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4" t="s">
@@ -3879,19 +3961,19 @@
     </row>
     <row r="62" spans="1:23" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="C62" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="D62" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="E62" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4" t="s">
@@ -3916,23 +3998,23 @@
     </row>
     <row r="63" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B63" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="C63" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="D63" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="E63" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="E63" s="10" t="s">
-        <v>269</v>
-      </c>
       <c r="F63" s="4"/>
-      <c r="G63" s="4" t="s">
-        <v>20</v>
+      <c r="G63" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3953,19 +4035,19 @@
     </row>
     <row r="64" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="C64" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="D64" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="E64" s="10" t="s">
         <v>273</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>274</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4" t="s">
@@ -3990,19 +4072,19 @@
     </row>
     <row r="65" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="C65" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="D65" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="E65" s="10" t="s">
         <v>278</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>279</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4" t="s">
@@ -4027,19 +4109,19 @@
     </row>
     <row r="66" spans="1:23" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="C66" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="D66" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="E66" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>284</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4" t="s">
@@ -4064,19 +4146,19 @@
     </row>
     <row r="67" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="D67" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="E67" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4" t="s">
@@ -4101,19 +4183,19 @@
     </row>
     <row r="68" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="E68" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4" t="s">
@@ -4138,19 +4220,19 @@
     </row>
     <row r="69" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4" t="s">
@@ -4175,19 +4257,19 @@
     </row>
     <row r="70" spans="1:23" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="E70" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4" t="s">
@@ -4212,19 +4294,19 @@
     </row>
     <row r="71" spans="1:23" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="C71" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="D71" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="E71" s="10" t="s">
         <v>308</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>309</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4" t="s">
@@ -4249,19 +4331,19 @@
     </row>
     <row r="72" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="C72" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="D72" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="E72" s="10" t="s">
         <v>313</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>314</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4" t="s">
@@ -4286,19 +4368,19 @@
     </row>
     <row r="73" spans="1:23" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="D73" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="E73" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4" t="s">
@@ -4323,19 +4405,19 @@
     </row>
     <row r="74" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>321</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>322</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4" t="s">
@@ -4360,19 +4442,19 @@
     </row>
     <row r="75" spans="1:23" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="C75" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="D75" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="E75" s="10" t="s">
         <v>327</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>328</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4" t="s">
@@ -4397,19 +4479,19 @@
     </row>
     <row r="76" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="C76" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="D76" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="E76" s="10" t="s">
         <v>332</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>333</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4" t="s">
@@ -4434,17 +4516,17 @@
     </row>
     <row r="77" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="C77" s="10" t="s">
         <v>335</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>336</v>
       </c>
       <c r="D77" s="10"/>
       <c r="E77" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4" t="s">
@@ -4469,7 +4551,7 @@
     </row>
     <row r="78" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B78" s="5">
         <v>1986</v>
@@ -4506,21 +4588,21 @@
     </row>
     <row r="79" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="C79" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="E79" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="E79" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="F79" s="13"/>
+      <c r="F79" s="12"/>
       <c r="G79" s="4" t="s">
         <v>20</v>
       </c>
@@ -4543,19 +4625,19 @@
     </row>
     <row r="80" spans="1:23" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="E80" s="9" t="s">
         <v>347</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>348</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4" t="s">
@@ -4580,19 +4662,19 @@
     </row>
     <row r="81" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B81" s="10">
-        <v>45144</v>
-      </c>
-      <c r="C81" s="9">
-        <v>45147</v>
-      </c>
-      <c r="D81" s="10">
-        <v>45149</v>
-      </c>
-      <c r="E81" s="10">
-        <v>45139</v>
+        <v>348</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>420</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4" t="s">
@@ -4617,19 +4699,19 @@
     </row>
     <row r="82" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B82" s="10">
-        <v>45139</v>
-      </c>
-      <c r="C82" s="9">
-        <v>45144</v>
-      </c>
-      <c r="D82" s="10">
-        <v>45147</v>
-      </c>
-      <c r="E82" s="10">
-        <v>45149</v>
+        <v>349</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>424</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4" t="s">
@@ -4654,19 +4736,19 @@
     </row>
     <row r="83" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="C83" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4" t="s">
@@ -4691,19 +4773,19 @@
     </row>
     <row r="84" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>357</v>
-      </c>
       <c r="C84" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4" t="s">
@@ -4728,7 +4810,7 @@
     </row>
     <row r="85" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B85" s="4">
         <v>1</v>
@@ -4765,7 +4847,7 @@
     </row>
     <row r="86" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B86" s="4">
         <v>1</v>
@@ -4802,19 +4884,19 @@
     </row>
     <row r="87" spans="1:23" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="C87" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>362</v>
       </c>
       <c r="D87" s="4">
         <v>2</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4" t="s">
@@ -4839,19 +4921,19 @@
     </row>
     <row r="88" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="D88" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="E88" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4" t="s">
@@ -4876,19 +4958,19 @@
     </row>
     <row r="89" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="C89" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="D89" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="E89" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4" t="s">
@@ -4913,19 +4995,19 @@
     </row>
     <row r="90" spans="1:23" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="C90" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="D90" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="E90" s="4" t="s">
         <v>377</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>378</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4" t="s">
@@ -4950,19 +5032,19 @@
     </row>
     <row r="91" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="D91" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="E91" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>383</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4" t="s">
@@ -4987,19 +5069,19 @@
     </row>
     <row r="92" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="D92" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="E92" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>388</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4" t="s">
@@ -5024,19 +5106,19 @@
     </row>
     <row r="93" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="C93" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="D93" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="E93" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>393</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4" t="s">
@@ -5061,7 +5143,7 @@
     </row>
     <row r="94" spans="1:23" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B94" s="4">
         <v>1.5</v>
@@ -5098,19 +5180,19 @@
     </row>
     <row r="95" spans="1:23" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C95" s="4" t="s">
+      <c r="D95" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>397</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4" t="s">
@@ -5135,7 +5217,7 @@
     </row>
     <row r="96" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B96" s="4">
         <v>100</v>
@@ -5172,19 +5254,19 @@
     </row>
     <row r="97" spans="1:23" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="C97" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="D97" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="E97" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>403</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4" t="s">
@@ -5209,19 +5291,19 @@
     </row>
     <row r="98" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="D98" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="E98" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>408</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4" t="s">
@@ -27772,6 +27854,6 @@
   </sheetData>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
 </worksheet>
 </file>